--- a/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    I thank the chairman for this hearing on this very important topic. I think it is the largest national security threat that we face as a country. And I know all three of our panelists have a lot of knowledge on the issue, and I think it will be very helpful for the committee to hear from them and engage in questions and answers as we try to figure out how to confront this threat.    And part of the problem with the threat is it is not easy to define and is not to easy to put a strategy around, because it really is a broad ideology that has many, many different components.    You know, post-9/11, we saw Al Qaeda as a terrorist group with a centralized leadership that was plotting and planning attacks against us and, I think, responded accordingly to try and defeat that organization, to try and defeat that network, and did a reasonably effective job of it in Afghanistan and in Pakistan as we prevented that group from being able to mount further attacks against us. That is the positive.    The negative is that the ideology itself has metastasized. It has grown into a number of the groups that the chairman mentioned and even more than that, in a lot of different places.    And the root cause is a lack of solid governance, a lack of solid economic opportunity in the Middle East and North Africa and much of the Arab Muslim world. They have an exploding youth population that has nothing to do; no jobs and no prospects. So the ideology that comes along and says, ``I have the answer for you,'' has plenty of willing recruits. And, meanwhile, they don't have much in the way of an example of a good government anywhere that they could look to and work with.    So it is going to be very difficult to contain. I think the chairman laid out, you know, the challenges with ISIS in Iraq and Syria, the collapse in Yemen, the difficulties in Libya. But, overall, I think we need a long-term strategy.    One of the things that I think has hampered us is this notion that we have to be able to confidently say either, A, that we are winning or that we are going to win and here is how. I honestly think that this is a long-term ideological struggle, not something that we can say, you know, we are determined to defeat it so let's just suck it up and 3 or 4 years from now it will be done. It took 75 years to defeat communism. I think we have to figure out how to have a long-term strategy for dealing with this ideology.    Now, that doesn't mean that in the short term the ideology runs rampant. A huge piece of that strategy is containing the threat, figuring out how to protect our interests from violence, and figuring out how to begin to roll back these groups and roll back the advance of their ideology.    But it is an issue that defies an easy answer. So what we hope to hear today is some ideas on how we can proceed and move forward, mindful of the fact that it is a very, very large problem that is going to take a long time to deal with.    And the final point that I will make: One of the things that hamstrings us is it is not something the U.S. or the Western world can take care of. The Muslim world does not want the United States to show up and tell it what it ought to do. And this is true even of the moderate Muslims that we look to work with.    We have to figure out how we can be helpful to support those moderate voices so that they can triumph, so that they can defeat these extremist ideologies. It cannot be Western-driven, by the very definition of the way those folks look at the world. So we can help, but if we help too much, in an odd sort of way we wind up hurting the overall effort. I think that is the lesson we learned in Iraq and Afghanistan.    So, with that, I look forward to the testimony, the questions. And I appreciate the chairman holding the committee; or the hearing, I should say.    The Chairman. I thank the gentleman.    I would just mention to Members that I think we are supposed to have votes on the floor roughly around 10:40, 10:45. And so I am going to try to be fairly strict with, be strict with the time limits so we can move along smartly.    I ask unanimous consent that the full written statement of all of our witnesses be made part of the record.    Without objection, so ordered.    Let me again thank our witnesses for being here.    I am very pleased to see retired Lieutenant General Michael Flynn, former Director of the Defense Intelligence Agency; Mr. William Braniff, executive director, National Consortium for the Study of Terrorism and Responses to Terrorism, with the University of Maryland; and Dr. Marc Lynch with The George Washington University.    All of these gentlemen have done very serious, helpful work for the committee and for the country on this topic of terrorism.    And we are very grateful to have you with us today. As I said, your full written statement will be made part of the record. If you would like to summarize at this point and then we will get to questions, we would appreciate it.    General Flynn.    General Flynn. Great. Thank you.    Chairman Thornberry, Ranking Member Smith, members of the committee, it is an honor to be here today, and I really appreciate the invitation.    You have asked me to comment on the state of Islamic extremism. Today I have the unhappy task of informing you that, according to every metric of significance, Islamic extremism has grown over the last year.    Whether it be the scale and scope of ISIS and its associated movements, the number of violent Islamist groups, the territory which these groups control, the number of terrorist attacks these groups perpetrate, the massive numbers and suffering of refugees and displaced persons due to these Islamist groups, that is approximately 15 million people, the amount of kidnapping and rape of women and children by these groups, the numbers of casualties they inflict, their broad expansion and use of the Internet, which is very serious, or just their sheer barbarism that we have witnessed, I can draw no other conclusion than to say that the threat of Islamic extremism has reached an unacceptable level and that it is growing.    We are at war with violent and extreme Islamists, both Sunni and Shia, and we must accept and face this reality.    This enemy has an engrained and unshakeable vision of how the world and society should be ordered, and they believe violence is a legitimate means of bringing about this ideal state. The violent Islamist is serious, devout, committed, and dangerous. His ideology justifies the most heinous, inhumane actions imaginable, and he will not be reasoned with, nor will he relent. This enemy must be opposed, they must be killed, they must be destroyed, and the associated extremist form of the Islamic ideology must be defeated wherever it rears its ugly head.    There are some who counsel patience, arguing violent Islamists are not an existential threat and therefore can simply be managed as criminals. I respectfully and strongly disagree.    I have been in the theaters of war of Iraq and Afghanistan for many years, faced this enemy up close and personal, and I have seen firsthand the unrestrained cruelty of this enemy. They may be animated by a medieval ideology, but they are thoroughly modern in their capacity to kill and maim, as well as precisely and very smartly message their ideas, intentions, and actions via the Internet. In fact, they are increasingly capable of threatening our Nation's interests and those of our allies.    Furthermore, it would be foolish for us to wait until our enemies pose an existential threat before taking decisive action. Doing so would only increase the cost in blood and treasure later for what we know must be done now. Our violent and extremely radical Islamist enemies must be stopped.    To that end, I offer the following three strategic objectives:    First, we have to energize every element of national power, similar to the effort during World War II or during the cold war, to effectively resource what will likely be a multigenerational struggle. There is no cheap way to win this fight.    Second, we must engage the violent Islamists wherever they are, drive them from their safe havens, and kill them. There can be no quarter and no accommodation for this vicious group of terrorists. Any nation-state that offers safe haven to our enemies must be given one choice: to eliminate them or be prepared for those contributing partners involved in this endeavor to do so.    We do need to recognize there are nations who lack the capability to defeat this threat and will likely require help to do so inside of their own internationally recognized boundaries. We must be prepared to assist those nations.    Third, we must decisively confront the state and non-state supporters and enablers of the violent Islamist ideology and compel them to end their support to our enemies or be prepared to remove their capacity to do so.    Many of these are currently considered partners of the United States. This must change. If our so-called partners do not act in accordance with internationally accepted norms and behaviors or international law, the United States must be prepared to cut off or severely curtail economic, military, and diplomatic ties. We cannot be seen as being hypocritical to those we are partnering with to defeat radical Islam.    Finally, in pursuit of these objectives, I fully support Congress' constitutional role in providing an authorization for the use of military force. This authorization should be broad and agile but unconstrained by unnecessary restrictions, restrictions that today cause not only frustration in our military, our intelligence, and our diplomatic communities, but also significantly slow down the decision-making process for numerous fleeting opportunities.    It is important, however, to realize that such an authorization is neither a comprehensive strategy nor a war-winning one. If there is not a clear, coherent, and comprehensive strategy forthcoming from the administration, there should be no authorization.    With that, Chairman, I am happy to take your questions.    [The prepared statement of General Flynn can be found in the Appendix on page 43.]    The Chairman. Thank you, General.    Mr. Braniff.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Braniff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Braniff. Chairman Thornberry, Ranking Member Smith, and esteemed members of the committee, I would like to thank you on behalf of the START Consortium for inviting us to speak with you today.    In 2013, over 22,000 people were killed in nearly 8,500 terrorist attacks. When START releases the full Global Terrorism Database dataset for 2014, we anticipate it will include over 15,000 terrorist attacks.    Our preliminary data from the first 9 months of 2014 suggests that 7 of the 10 most lethal groups in 2014 were violent jihadist groups. And ISIL [Islamic State of Iraq and the Levant], among them, conducted more terrorist attacks than any other terrorist organization.    The trend lines over the last few years are largely driven by two factors: first, the proliferation of groups associated with Al Qaeda in hotspots around the world; and, second, the rise of ISIL and its strategy of escalation through sectarian violence.    What we have, therefore, is the makings of a global competition involving the most violent terrorist organizations in the world. This is even more troubling when one considers that both the theoretical and empirical work in the terrorism studies field suggests that competition among terrorist groups is one of the most important predictors of increasing lethality over time.    To better understand this competition and its implications, I would like to contrast the operations and strategies of Al Qaeda and its associated movement, or AQAM, with those of ISIL.    Al Qaeda is waging a protracted war of attrition against the West, specifically aiming to bleed the United States. If they are able to attrite the American economic, military, or political will to remain engaged in the Muslim world, local jihadists can overpower apostate regimes and establish what they would consider to be proper theocracies.    To wage this war of attrition, Al Qaeda has sent operatives into conflict zones across the world to reorient the violence of militant organizations and individuals, refocusing their wrath on far-enemy targets, like Western embassies or tourist destinations.    Al Qaeda seeks to use spectacular mass-casualty attacks to incite heavy-handed military responses from Western and apostate governments that seemingly evidence the war on Islam that Al Qaeda portrays in its propaganda, thereby polarizing the Muslim and the non-Muslim worlds and enabling jihadists to mobilize for a civilizational conflict.    ISIL is not currently waging a war of attrition but one of escalation. Instead of inviting Muslim versus Western violence, it is benefiting from the resources already being mobilized by sectarian polarization that has taken place in Iraq and Syria and beyond, which it actively seeks to exacerbate. Instead of the far enemy, ISIL's military operations have focused on attacking competitors in their midst who do not submit to their ideological and organizational primacy and seizing the resources necessary to build the institutions of the caliphate.    Given this competition, there are several implications for U.S. policy and regional security.    The first: While Al Qaeda's far-enemy strategy relies on provocation to polarize and mobilize the masses, ISIL is ratcheting up already-elevated levels of sectarian tension in the post-Arab Spring world. The continued presence of the Assad regime in Syria serves as a more salient rallying cry for ISIL than for AQAM, and broad anti-Assad sentiment in Sunni-majority countries helps to dampen those governments' responses to both ISIL and groups like Jabhat al-Nusra, an Al Qaeda affiliate.    As sectarian tensions remain high, ISIL and aligned jihadist groups will foster and exploit those tensions. ISIL veterans will travel to new fronts outside of Iraq and Syria, bringing their escalation strategy and sectarianism with them.    In a worst-case scenario, this contagion effect runs the risk of inciting a sectarian civil war in the Muslim world, relegating the West to the role of observer, poorly positioned to take any meaningful action to protect itself or others.    In addition, every new ISIL front opens up a new set of grievance narratives and a new set of mobilization pathways for terrorist organizations seeking to radicalize and recruit foreign fighters.    Three, both ISIL and AQAM have incentives to conduct attacks against the West as part of this competition. For ISIL, attacks against the West can be used as a form of deterrence, making foreign countries think twice or pay the price for large-scale military interventions in Iraq and Syria.    We cannot be fooled into thinking that Al Qaeda's focus on the caliphate prevents them from actively seeking the capability to conduct attacks against the homeland. For Al Qaeda and its associated movement, ISIL's antagonist rise to prominence has created a crisis of legitimacy, incentivizing them to use far-enemy attacks to regain the spotlight.    Furthermore, if ISIL continues to murder Muslims and overstep its bounds, as we have recently seen with respect to the murder of a Jordanian pilot, Al Qaeda and its associated movement might wind up looking more legitimate and mainstream by comparison as long as they remain focused on the true enemies of Islam, the West. We cannot take, therefore, take pressure off of AQAM.    To conclude, we are seeing an escalating competition among violent Sunni extremist groups at a time when sectarian tensions are high and many governments' hold on legitimacy is weak. It is essential, therefore, that any U.S. strategy prioritizes working with Sunni nations and communities to marginalize violent Sunni extremists.    To do this, the U.S. must find a way to ease sectarian tensions and earn the trust of our Sunni partners, allowing them to focus their attention on marginalizing groups like ISIL and AQAM.    Thank you.    [The prepared statement of Mr. Braniff can be found in the Appendix on page 50.]    The Chairman. Thank you.    Dr. Lynch.</t>
   </si>
   <si>
-    <t>Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lynch. First, I would like to thank Chairman Thornberry, Ranking Member Smith, and the whole committee. It is a real honor to be on this panel and to have the chance to speak with you.    So, as you have heard from my colleagues, ISIL poses a serious threat to American interests, to the people of the region, to our partners in the region. And, of course, it is extremely important to not underestimate the nature of the threat or to misunderstand the nature of the threat.    I think it is important, however, to not perhaps exaggerate its novelty or perhaps the magnitude of the threat. These are not super-humans with unprecedented ability to form states or to seize territory or to inspire.    The world's history is full of insurgencies that have captured territory and sought to govern it by extracting resources from the local population. The world's history is full of insurgencies that have used graphic, violent terrorism to intimidate their enemies and to ensure control over their own local populations.    We have seen both Islamist and other ideological movements over world history. This is a dangerous and violent organization which must be confronted, but it is important that we place it in proper perspective.    I think the most important perspective that we need to keep is to understand the fundamental strategic dilemma that Islamic extremist groups have faced from their beginning, whether it is Islamic Jihad in Egypt or the Armed Islamic Group in Algeria or Al Qaeda in the 2000s or ISIL today. And that fundamental strategic problem is that while they do absolutely have the vision that General Flynn described, the characteristics that General Flynn described, and that extreme dogmatism, the vast, vast majority of the Muslims of the world do not agree with them. And they have failed every time they have attempted to reach out and to mobilize the world's Muslims on their side.    The ideology and the strategy of Al Qaeda and ISIL is to create a class of civilizations, to create an unbridgeable divide between the Muslims of the world and the West. And what we must keep in mind as we formulate any kind of effective strategy is that the way to defeat ISIL, Al Qaeda, and all forms of violent extremism is to marginalize them and to form alliances with the vast majority of the world who reject their barbarism and who reject their extreme ideologies.    The face of Muslims in the minds of Americans and the face of Muslims in the mind of the world should not be Abu Bakr Baghdadi. It should not be Osama bin Laden. It should not be the faceless murderers of the journalists of Charlie Hebdo in Paris. It should be Yusor Abu-Salha; Razan Abu-Salha; Deah Barakat, the Steph Curry-loving dental student and volunteer for Syrian refugees who was murdered in North Carolina this week.    To defeat ISIL, America must be seen as their champion, not as their enemy. And if we are able to align ourselves with the aspirations and the hopes of Muslims all over the world, then ISIL can be defeated, and only then.    And so I do not disagree with General Flynn's characterization of the threat posed by ISIL, but I believe it is extremely important that we approach this threat from the perspective of the need to constantly seek to deflate their pretensions, to marginalize them, and to expose their extremism in the eyes not only of us but of the Muslims who they seek to recruit, to mobilize, and ultimately to lead.    Now, this was, I believe, one of the great accomplishments--the great bipartisan accomplishments of both the Bush administration after 9/11 and the Obama administration: the immediate understanding of this strategic divide and the need to not allow Al Qaeda after 9/11 to provoke this kind of clash of civilizations.    President Bush, despite some missteps early on, I think did a fantastic job of trying to reach out to the Muslims of the United States and to ensure that this divide did not open up. And I think that is the bipartisan commitment that we should build on today.    Now, in my prepared statement, I go through in some detail explanations for why ISIL has emerged in the form that it has today. I won't repeat those here. Let me just hit some of the bullet points, because I think it is important to place this into a specific political context.    Ranking Member Smith, in his opening statement, mentioned the failures of governance, and I think this is extremely important. The failure of the Arab uprisings is a key part of the emergence of ISIL in the form it is today. An enormous number of young Muslims, young Arabs around the Middle East have seen their hopes raised and then crushed. The military coup in Egypt is a particularly defining point in proving, unfortunately, to a large number of people that peaceful political participation is not an option.    If we are going to respond to ISIL in the way, as again, I agree with General Flynn, that we must, we need to address those underlying causes of despair, of alienation, and the absence of alternative paths, which is building the possible pool of recruits for ISIL.    That includes reversing the sectarian misgovernment of Iraq. It includes trying to find some kind of peaceful de-escalation of the war in Syria. And it means trying to find some way to align the United States with the forces of moderate and peaceful change.    That is no easy task. I have some ideas about how we might go about doing that, but for now I will simply stop, and I welcome everyone's questions.    [The prepared statement of Dr. Lynch can be found in the Appendix on page 69.]    The Chairman. Thank you.    Again, I appreciate the testimony from each of you.    I would like to ask, hopefully, just a brief question from each of you.    General Flynn, towards the end of your statement, you make a point that an AUMF should not be overly constrained. You have had a lot of experience fighting these folks in the Middle East and South Asia. Do you have an opinion about how difficult it would be for our troops to follow a restriction that said they could not engage in enduring offensive ground combat operations?    General Flynn. Yes.    So we need to be very clear in this AUMF that, you know, may come out of an agreement between the legislative and executive branches here. When we give our military commanders a mission, we should allow them to execute that mission and not overly constrain them with approved authorities but then having to come back to the administration for permission.    So if we authorize the use of force to do something with these many times fleeting opportunities out there that our military forces see and then they have to come back up through a bureaucratic process to get permission even though there is an authority given to them, then either, you know, we need to review those authorities and those permissions or we need to change the commanders because we apparently don't trust them to do the job that we have given them to do. So that is a real problem today.    Give the commanders the authority to execute the mission that they have been given. If they are not the right people, remove them and put somebody else in there that can do that. Otherwise, allow them to do the things that they have been assigned, tasked, and are very capable of doing in what is currently the AUMF that we have.    We have become so overly bureaucratic in coming up through the system to get permission to basically do things that, frankly, colonels on the battlefield or captains at sea are very capable of doing.    The Chairman. Okay. Thank you.    Mr. Braniff, I was struck in your testimony that, as I read it, just in the last 12 months, we have seen a dramatic rise in these terrorist organizations and in their attacks.    Now, as I understand it, one of the things your organization does is keep track of these with objective metrics. And am I reading that right, that even in the last year we have seen this problem get dramatically worse?</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>400279</t>
   </si>
   <si>
-    <t>Jeff Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Mr. Chairman.    General Flynn, in 2002, the authorization for use of military force basically said the President is authorized to use the Armed Forces of the United States as he determines to be necessary and appropriate.    Why do you think we now have an AUMF before us that puts restrictions on it on things that the President claims he can do without an AUMF?    General Flynn. I guess my answer to that would be, whatever the decision is between this body and the executive branch of government, we have to make sure, in one sense, we have to play our cards very close to our chest, meaning don't discount any option that the United States of America has by telegraphing what those options are or are not going to be, you know, we are not going to commit troops or we are not going to do this or that. So I just think that we have to play a very smart card game with the AUMF.    I think on this AUMF thing, though, is that, like I said, that is not a comprehensive strategy. That is a component of something that we need. And, like I said to the chairman, we have to make sure that when we lay this out to our military forces, primarily, and, to a degree, some inside of our intelligence community, that they have the full authority to be able to execute the tasks that they are going to be assigned. Otherwise, you know, you are tying our hands behind our back, so to speak, and we are slowing the system down through unnecessary bureaucracy.</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t xml:space="preserve">    Dr. Lynch. That cost is to continue to, and I think we have already started this, and I think our Arab allies have done this, is a really strong strategic communications campaign to highlight their barbarity, to highlight their extremism, to deflate their pretensions to power, to expose the realities of life in ISIL-governed territories, and to puncture their mystique in such a way that the alienated, disenfranchised youth in Tunis or in Libya doesn't see it as an attractive, noble, or heroic thing to go and join this group.    And I think that that is the way we need to approach them, to undermine them and deflate them rather than to exaggerate their capabilities.    The Chairman. I thank the gentleman.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chair.    General Flynn, thank you for your testimony and for your service. I think you made a number of excellent points, including the need to have a clear and comprehensive strategy from the administration before we move forward with an authorization for the use of military force.    You also talked about our need to rethink our relationships with our regional allies. And I think you said something to the effect of, if they failed to adhere to global standards and norms and values----    General Flynn. International law.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    General Flynn, I have a question for you. I am really concerned that, just this week, President Barack Obama was interviewed and compared fighting ISIS to a big-city mayor fighting crime. And that really troubles me, because there is no comparison. That is a horrible and poor analogy.    In a big city, if you have criminals like muggers, carjackers, drug dealers, they are not trying to kill the mayor and take over the city government, which is what ISIS is trying to do in the various countries in the Middle East. And they want to take over and destabilize Jordan and Saudi Arabia, ultimately go after Israel.    There is just no comparison to a big-city mayor fighting crime. Are you troubled by that type of analogy? And does that indicate to you, like it does to me, that he just doesn't get it?    General Flynn. Well, what I have said is that you cannot defeat an enemy that you do not admit exists.    And I really, really strongly believe that the American public needs and wants moral, intellectual, and really strategic clarity and courage on this threat.    I mean, there is no comparison. And it is not to take away the danger that exists with the thugs and the criminals that are in our own system, but that is not what it is that we are facing in this discussion that we are having right now. It is totally different.</t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. First, thank you very much for being here this morning.    You have touched a bit on other terrorist groups in the region. Could you please provide an update on Hezbollah?    Thank you.    General Flynn. I will give it a shot, and you guys can talk.    I mean, so Hezbollah is an Iranian-backed group. I believe we are still designating them as a terrorist organization, our State Department.    Hezbollah is deeply involved in Syria. So they are fighting in Syria. Members of Hezbollah are fighting, and they are actually leading and doing some of the, sort of, what I would call special-operations-type training of some of the Syrian forces.    Hezbollah is involved in Yemen. Hezbollah is certainly involved in Lebanon and some of the disruption of things in that particular country. And Hezbollah is involved in Iraq, as well. So members of Hezbollah are, in fact, inside of Iraq fighting with what I would describe as what we used to call the Badr Corps organization, which we know is led by members of Iran's IRGC [Iranian Revolutionary Guard Corps].    So Hezbollah is a very dangerous organization. They are responsible for killing many, many Americans, and we need to not let them, sort of, get a pass on any of this.</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for joining us today. Thank you for your testimony.    General Flynn, how worried are you about American citizens becoming radicalized, training overseas, and returning back to the United States?    And are there additional steps that the U.S. should take in addressing those citizens that travel to train with ISIS in Syria and Iraq and then later return back to the United States and the threats that they would pose here?    I would like to get your perspective.    General Flynn. Yeah. First, I think that our FBI and the leadership of the FBI is doing a phenomenal job dealing with this issue here in the homeland.    Just to give you a little perspective, when somebody shows up to Syria, okay, and this has been going on for a while, they do a little vetting of who these individuals are. And if it is somebody who just came over, you know, to sort of get their jihad on, so to speak, they may just tell them, ``You are going to be a suicide bomber. Here is what we are going to do, here is where you are going to operate, and go forth and do good.''    In the other parts of the vetting, though, they look for individuals who have different skill sets, who have savvy with the Internet, who have some leadership skills, who maybe have some engineering capabilities. So they are sophisticated in how they recruit, particularly when they arrive.    And those individuals then get put into a different pipeline. They may not get put into the suicide-attacker or VBIED [vehicle-borne improvised explosive device] pipeline; they may get put into a different pipeline. And those are the individuals that there will be, sort of, a different future for them to maybe come back to this country and get involved in additional recruiting, additional activities, and maybe, you know, larger-scale types of attacks that we are trying to avoid.    So I just think that, a variety of reasons why they get recruited. The Internet is a big, big part of this. I think our FBI is doing the best job that they can. But we really need to recognize and track who these persons are.    And I will be honest with you. If somebody is going to conspire to fight against us, which is essentially what they are doing, there also has to be a discussion, at least, about their citizenship.</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    Thank you all for being here and for your presentations.    General Flynn, could you follow up a bit on your comment just now because you are talking about the lessons learned about the mismatch and the threats. And would you make that same analysis about even our not understanding the country of Iraq, for example, when we went into Iraq and may have created more enemies than friends. How would you respond to that?    General Flynn. Yeah, I think that that is very, you know, I mean what you are implying is very true. And I think that we, you know, in the spectrum of conflict, when we define the spectrum of conflict, we in the military look at it from peace to war. The political dimension of our country has to look at it from peace and get us back to peace in order to get us out of war. And we did not, we don't do a really good job thinking past the point of conflict or the point of war.    And we have to do that. And I think that is part of this debate, as the ranking member was highlighting, that we have to not just throw military resources at this thing; we have to be far more sophisticated. But that is not comprehensive right now. That sophistication, I don't see it. And I have been studying this problem for a long time, and I am, you know, I am hopeful that we can get our act together. But it has to be one that is very, very comprehensive, and it is going to be a multigenerational problem.    And there are moderates out there that we do need to encourage. Somebody sent me a note the other day and said, Hey, you know, there is 126 subject-matters experts, you know, clerics and others in the Muslim world that came out strong against ISIS. Why aren't there 126,000? Why are there only 126? I mean, there is that many mosques in Baghdad. I mean, there should be thousands, and there should be leaders of these countries that we are dealing with that need to stand up and make a statement, make a strong statement, about what it is that we are doing or not doing. So----</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Just a question about ISIS. I served in Iraq with the Marine Corps, in 2005, in Ramadi and Fallujah; in 2006, in Haditha, Barwana, Haqlaniyah in the Western Euphrates River Valley. And what I found in the Sunni Arab population is they clearly didn't like us. We have upset the apple cart. They saw the government in Baghdad as a Shia-dominated government, sectarian government that was against them. And they were against the government. But when they saw later on a path, the fissures between the Al Qaeda element and the local insurgents became more significant over time. And I think when they saw a path where they could be a part of the government, then those fissures, you know, exploded between the two. And I found them to be a very moderate people. Boys and girls went to school together in these towns; secular curriculum, annual exams, and very dependent upon a lot of government services. And so it is hard for me to envision them subjugated to this radical Islamic group, ISIS. Just, they were temporarily in line with Al Qaeda, and then they broke up. And so what is the prognosis here? And I will refer to each one of you.</t>
   </si>
   <si>
@@ -265,9 +235,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Thank you, gentlemen, for being here today. Each of you have made points throughout this morning about how this sectarianism is a driver for violence, how the trust of the Sunni tribes and people must be earned in order to take the oxygen away that currently exists, especially in Iraq, for ISIS. How can this be done with this current strategy? You have talked about new leadership in place. You have talked about different rhetoric, a different way of doing things, but the fact and the reality is that Iran's influence over this current government in Iraq continues as it has been. Their ability to have any sense of control over the Shia militias and who they are attacking and what they are doing does not exist. And unless you go to a different model of governance and go away from this attachment to this continued policy of one central government in Iraq and move to something where you are actually truly empowering the Kurds, we are not having to funnel everything through the Baghdad government, where, at this point, even a small margin of the weapons and ammunition that we are sending is getting to them, and empower the Sunnis, and empower the Shias in some type of three-state solution, how is this current strategy a winning strategy to defeat ISIS, unless you get to this core of this issue?    General Flynn. I will just quickly, I believe that we are going to not go back to the way things were. The breakdown of the boundaries within this region are going to be incredibly difficult to get back to, not impossible, but I just don't see that happening any time soon, potentially in my lifetime.    I would say that Iran is the greater problem. They do not see inclusiveness of Sunnis, you know, from the Iranian viewpoint. And I think that they, like you, saw in Yemen recently with some of the chanting that we saw, you are seeing in Iraq things occur that are clearly Iranian influenced and against everything that we are trying to do. So I will leave it at that.</t>
   </si>
   <si>
@@ -280,9 +247,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heck. Thank you, Mr. Chairman.    Thank you all for being here today. The President recently released his 2015 National Security Strategy. And on the White House Website, it states that the strategy is ``the blueprint for America's leadership in the world--how we address global challenges while advancing our Nation's interests, values, and vision for the future.''    On page 3 of the strategy, it says, ``We are leading a global campaign and degrading and ultimately defeating the Islamic State of Iraq and the Levant.''    And on page 15, it states, ``We reject the lie that America and its allies are at war with Islam.''    I would disagree with the first statement. I don't think we are leading in trying to degrade and ultimately defeat ISIL, but I would agree with the second statement that we are not at war with all of Islam. We are at war with radical Islam and Islamic extremism, yet nowhere in the strategy does that term appear. In fact, the only two times that the word ``Islam'' appears in the strategy are in the two instances I just mentioned, yet climate change appears 19 times.    I would ask, Do you think the National Security Strategy has enough specificity to adequately inform the nested documents of the National Defense Strategy and the National Military Strategy to actually have a positive impact on executing a strategy for degrading and ultimately defeating     And, secondly, Dr. Lynch, I would ask in your statement about the momentum of ISIL being halted. Just within the last 24 hours, they have taken control of the city of al-Baghdadi, and they are knocking on the door of the Al Asad Air Base, where we have 320 Marines in a training capacity. How can you say that the momentum has actually been halted?</t>
   </si>
   <si>
@@ -334,9 +298,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman.    An interesting discussion about Guantanamo, and I absolutely--in my home area, we have the largest Federal prison ever. And I would just suggest to you, when you detain these folks, whether it is GTMO [Guantanamo] or in the U.S., that is the issue, that is going to be the issue to the bad guys and their associated friends and fellows. So I think it is, I agree with the general, when you bring them back to the U.S., as a former law enforcement, it just creates a whole bunch of other issues that we have not had to deal with when they are held at     The one thing that I am struggling with was the President's request for an authorization, and you hit it on the head, General, is a clear, comprehensive strategy. And what would that look like? I guess that is where I am struggling. What does a clear, comprehensive strategy look like in regards to dealing with the issue that we have in front of us? Because, you know, we had the King of Jordan here. And his comprehensive strategy is, you can't just look at ISIS or ISIL. You have got to look at across the world in regards to Islamic extremism.    General Flynn. So, I mean, we talked about this business about clearly defining the enemy and making sure that it is comprehensive. And I think that those are sort of two parts of this. And you have just addressed, certainly, the second one. I think the third one is that we have to really take a hard look at how we are organized as a nation to deal with the sort of the tactical problem of what is happening in Iraq and Syria. But we also have to look at how we are organized as a nation to deal with the wider longer-term problem of this radical version of Islam.    Now, that is, you know, specifically, it is the Department of Defense. It is the, you know, the Department of State, the Central Intelligence Agency, and the Intelligence Community as it supports our national interest. And then I think we have to look at how we are organized internationally. And I have really, you know, I use the NATO [North Atlantic Treaty Organization] model, you know, as a model, although it has got its, you know, shortcomings, but we need to have some sort of Arab-world NATO, if you will, like structure, and not deal with each one of these countries as though they are individual countries dealing with individual problems. They are all dealing with those kinds of problems. And I think that we do need to put somebody in charge of it. I think that we need to put, designate someone in charge that has not only the backing of this country and a full line of authority from the President of the United States to execute authorities, and it is probably civilian-led, but it is just somebody with that kind of, you know, gravitas, I guess, but also internationally accepted to run this sort of campaign.    Now, should it be somebody from the U.S.? I believe it should be somebody from the U.S. It doesn't need to be, doesn't mean that we have to have large numbers of boots on the ground. It just means that we have to come together, organize ourselves first, make sure that we are organized correctly internationally, and then make sure that somebody is in charge of this effort, and then, frankly, tell the American public that this is going to last for generations. I mean, this is not something that is going to go away.</t>
   </si>
   <si>
@@ -379,9 +340,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank all of our witnesses for being here, in particular General Flynn, a fellow Rhode Islander.    General, welcome back before the committee and thank you for your years of service.    So I would like to, my question would be for Dr. Lynch, and also for General Flynn, whoever wants to go first. Clearly, this rise of radical violent extremists didn't happen overnight. It was allowed to fester in many ways. Maybe it was the religious community, for whatever reason, as I understand it, was allowed to preach hate and violence, and a lot of the leaders in the Middle East kind of looked the other way and for whatever reason. So it kind of took a long time to get here. It is going to take a long time to get out of it. But let me ask you, do the statements from, for example, President el-Sisi, in Egypt, which I found surprising, but welcome, a welcome statement when he spoke to the religious community there or establishing Sunni imams in the greater Middle East who have denounced the violence of ISIL or Islamic extremism more broadly, do they moderate, or you know, counter the nature of the grievances, and the threat from jihadists in the region? Or are these steps having the reverse effect of reinforcing the jihadist ideology and grievance narrative? Can you comment on that?</t>
   </si>
   <si>
@@ -400,9 +358,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    General Flynn, first of all, I notice you went to University of Rhode Island.    General Flynn. First land-grant university in the country, established by--Abraham Lincoln actually established that law.</t>
   </si>
   <si>
@@ -421,9 +376,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. I will try to be brief.    And, Dr. Lynch, I want to go to one of the statements that you made about the fact that terrorism is ebbing and flowing. We shouldn't pay too much attention to it. That is just going to happen the way the Middle East is, if you will. But I would like to have this submitted for the record and wonder if you have seen this.    [The information referred to is retained in committee files and can be viewed upon request.]</t>
   </si>
   <si>
@@ -476,9 +428,6 @@
   </si>
   <si>
     <t>412611</t>
-  </si>
-  <si>
-    <t>Martha McSally</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    And thank you all for your testimony. It has been very informative. A lot of my questions have been answered.    A quick question about trends in Africa. I was a part of a team at U.S. Africa Command running current operations there. And just your comments, we talked a little bit about Boko Haram, but AQAM [Al Qaeda and associated movements] and Al Shabaab, and the trends you are seeing with those organizations, and you know, there are plenty of ungoverned spaces that are potential--we have seen foreign fighters flow in and out in the past when many people weren't paying attention. So any comments on the trends going on in the rest of those organizations on the African Continent?</t>
@@ -892,11 +841,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -916,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -942,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -968,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -994,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1022,11 +961,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1048,11 +985,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1074,11 +1009,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1100,11 +1033,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1126,11 +1057,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1152,11 +1081,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1178,11 +1105,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1204,11 +1129,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1230,11 +1153,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1256,11 +1177,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1282,11 +1201,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1308,11 +1225,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1334,11 +1249,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1360,11 +1273,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1386,11 +1297,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1412,11 +1321,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1438,11 +1345,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1464,11 +1369,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1490,11 +1393,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1514,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1540,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1566,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1592,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>41</v>
-      </c>
-      <c r="H29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1618,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1644,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1670,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1696,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1722,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1748,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1774,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1800,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1826,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1852,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1878,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1904,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1930,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1956,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1982,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2008,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2034,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2060,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2086,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2112,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2138,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2164,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2190,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2216,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2242,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2268,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2294,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2320,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2346,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" t="s">
-        <v>88</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2372,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2400,11 +2233,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2424,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2452,11 +2281,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2476,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2504,11 +2329,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2530,11 +2353,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2556,11 +2377,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2582,11 +2401,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2608,11 +2425,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2634,11 +2449,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2660,11 +2473,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2686,11 +2497,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2712,11 +2521,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2738,11 +2545,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2762,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2788,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
-      </c>
-      <c r="G75" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2814,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2840,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2866,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2892,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2918,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2944,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2970,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2996,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3022,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3048,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3074,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>106</v>
-      </c>
-      <c r="H86" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3100,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
-      </c>
-      <c r="G87" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3126,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3152,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3178,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3204,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
-      </c>
-      <c r="G91" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3230,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" t="s">
-        <v>128</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3256,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
-      </c>
-      <c r="G93" t="s">
-        <v>128</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3282,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
-      </c>
-      <c r="G94" t="s">
-        <v>128</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3308,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" t="s">
-        <v>128</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3334,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
-      </c>
-      <c r="G96" t="s">
-        <v>128</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3360,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
-      </c>
-      <c r="G97" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3386,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3412,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3438,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
-      </c>
-      <c r="G100" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3464,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3490,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3516,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3542,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3568,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3594,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3620,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3646,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3672,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3698,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3724,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>119</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>134</v>
-      </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
-      <c r="H111" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3750,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>135</v>
-      </c>
-      <c r="H112" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3776,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3802,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>153</v>
-      </c>
-      <c r="G114" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3828,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3854,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>153</v>
-      </c>
-      <c r="G116" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3880,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" t="s">
-        <v>154</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3906,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you.    I thank the chairman for this hearing on this very important topic. I think it is the largest national security threat that we face as a country. And I know all three of our panelists have a lot of knowledge on the issue, and I think it will be very helpful for the committee to hear from them and engage in questions and answers as we try to figure out how to confront this threat.    And part of the problem with the threat is it is not easy to define and is not to easy to put a strategy around, because it really is a broad ideology that has many, many different components.    You know, post-9/11, we saw Al Qaeda as a terrorist group with a centralized leadership that was plotting and planning attacks against us and, I think, responded accordingly to try and defeat that organization, to try and defeat that network, and did a reasonably effective job of it in Afghanistan and in Pakistan as we prevented that group from being able to mount further attacks against us. That is the positive.    The negative is that the ideology itself has metastasized. It has grown into a number of the groups that the chairman mentioned and even more than that, in a lot of different places.    And the root cause is a lack of solid governance, a lack of solid economic opportunity in the Middle East and North Africa and much of the Arab Muslim world. They have an exploding youth population that has nothing to do; no jobs and no prospects. So the ideology that comes along and says, ``I have the answer for you,'' has plenty of willing recruits. And, meanwhile, they don't have much in the way of an example of a good government anywhere that they could look to and work with.    So it is going to be very difficult to contain. I think the chairman laid out, you know, the challenges with ISIS in Iraq and Syria, the collapse in Yemen, the difficulties in Libya. But, overall, I think we need a long-term strategy.    One of the things that I think has hampered us is this notion that we have to be able to confidently say either, A, that we are winning or that we are going to win and here is how. I honestly think that this is a long-term ideological struggle, not something that we can say, you know, we are determined to defeat it so let's just suck it up and 3 or 4 years from now it will be done. It took 75 years to defeat communism. I think we have to figure out how to have a long-term strategy for dealing with this ideology.    Now, that doesn't mean that in the short term the ideology runs rampant. A huge piece of that strategy is containing the threat, figuring out how to protect our interests from violence, and figuring out how to begin to roll back these groups and roll back the advance of their ideology.    But it is an issue that defies an easy answer. So what we hope to hear today is some ideas on how we can proceed and move forward, mindful of the fact that it is a very, very large problem that is going to take a long time to deal with.    And the final point that I will make: One of the things that hamstrings us is it is not something the U.S. or the Western world can take care of. The Muslim world does not want the United States to show up and tell it what it ought to do. And this is true even of the moderate Muslims that we look to work with.    We have to figure out how we can be helpful to support those moderate voices so that they can triumph, so that they can defeat these extremist ideologies. It cannot be Western-driven, by the very definition of the way those folks look at the world. So we can help, but if we help too much, in an odd sort of way we wind up hurting the overall effort. I think that is the lesson we learned in Iraq and Afghanistan.    So, with that, I look forward to the testimony, the questions. And I appreciate the chairman holding the committee; or the hearing, I should say.    The Chairman. I thank the gentleman.    I would just mention to Members that I think we are supposed to have votes on the floor roughly around 10:40, 10:45. And so I am going to try to be fairly strict with, be strict with the time limits so we can move along smartly.    I ask unanimous consent that the full written statement of all of our witnesses be made part of the record.    Without objection, so ordered.    Let me again thank our witnesses for being here.    I am very pleased to see retired Lieutenant General Michael Flynn, former Director of the Defense Intelligence Agency; Mr. William Braniff, executive director, National Consortium for the Study of Terrorism and Responses to Terrorism, with the University of Maryland; and Dr. Marc Lynch with The George Washington University.    All of these gentlemen have done very serious, helpful work for the committee and for the country on this topic of terrorism.    And we are very grateful to have you with us today. As I said, your full written statement will be made part of the record. If you would like to summarize at this point and then we will get to questions, we would appreciate it.    General Flynn.    General Flynn. Great. Thank you.    Chairman Thornberry, Ranking Member Smith, members of the committee, it is an honor to be here today, and I really appreciate the invitation.    You have asked me to comment on the state of Islamic extremism. Today I have the unhappy task of informing you that, according to every metric of significance, Islamic extremism has grown over the last year.    Whether it be the scale and scope of ISIS and its associated movements, the number of violent Islamist groups, the territory which these groups control, the number of terrorist attacks these groups perpetrate, the massive numbers and suffering of refugees and displaced persons due to these Islamist groups, that is approximately 15 million people, the amount of kidnapping and rape of women and children by these groups, the numbers of casualties they inflict, their broad expansion and use of the Internet, which is very serious, or just their sheer barbarism that we have witnessed, I can draw no other conclusion than to say that the threat of Islamic extremism has reached an unacceptable level and that it is growing.    We are at war with violent and extreme Islamists, both Sunni and Shia, and we must accept and face this reality.    This enemy has an engrained and unshakeable vision of how the world and society should be ordered, and they believe violence is a legitimate means of bringing about this ideal state. The violent Islamist is serious, devout, committed, and dangerous. His ideology justifies the most heinous, inhumane actions imaginable, and he will not be reasoned with, nor will he relent. This enemy must be opposed, they must be killed, they must be destroyed, and the associated extremist form of the Islamic ideology must be defeated wherever it rears its ugly head.    There are some who counsel patience, arguing violent Islamists are not an existential threat and therefore can simply be managed as criminals. I respectfully and strongly disagree.    I have been in the theaters of war of Iraq and Afghanistan for many years, faced this enemy up close and personal, and I have seen firsthand the unrestrained cruelty of this enemy. They may be animated by a medieval ideology, but they are thoroughly modern in their capacity to kill and maim, as well as precisely and very smartly message their ideas, intentions, and actions via the Internet. In fact, they are increasingly capable of threatening our Nation's interests and those of our allies.    Furthermore, it would be foolish for us to wait until our enemies pose an existential threat before taking decisive action. Doing so would only increase the cost in blood and treasure later for what we know must be done now. Our violent and extremely radical Islamist enemies must be stopped.    To that end, I offer the following three strategic objectives:    First, we have to energize every element of national power, similar to the effort during World War II or during the cold war, to effectively resource what will likely be a multigenerational struggle. There is no cheap way to win this fight.    Second, we must engage the violent Islamists wherever they are, drive them from their safe havens, and kill them. There can be no quarter and no accommodation for this vicious group of terrorists. Any nation-state that offers safe haven to our enemies must be given one choice: to eliminate them or be prepared for those contributing partners involved in this endeavor to do so.    We do need to recognize there are nations who lack the capability to defeat this threat and will likely require help to do so inside of their own internationally recognized boundaries. We must be prepared to assist those nations.    Third, we must decisively confront the state and non-state supporters and enablers of the violent Islamist ideology and compel them to end their support to our enemies or be prepared to remove their capacity to do so.    Many of these are currently considered partners of the United States. This must change. If our so-called partners do not act in accordance with internationally accepted norms and behaviors or international law, the United States must be prepared to cut off or severely curtail economic, military, and diplomatic ties. We cannot be seen as being hypocritical to those we are partnering with to defeat radical Islam.    Finally, in pursuit of these objectives, I fully support Congress' constitutional role in providing an authorization for the use of military force. This authorization should be broad and agile but unconstrained by unnecessary restrictions, restrictions that today cause not only frustration in our military, our intelligence, and our diplomatic communities, but also significantly slow down the decision-making process for numerous fleeting opportunities.    It is important, however, to realize that such an authorization is neither a comprehensive strategy nor a war-winning one. If there is not a clear, coherent, and comprehensive strategy forthcoming from the administration, there should be no authorization.    With that, Chairman, I am happy to take your questions.    [The prepared statement of General Flynn can be found in the Appendix on page 43.]    The Chairman. Thank you, General.    Mr. Braniff.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Braniff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Braniff. Chairman Thornberry, Ranking Member Smith, and esteemed members of the committee, I would like to thank you on behalf of the START Consortium for inviting us to speak with you today.    In 2013, over 22,000 people were killed in nearly 8,500 terrorist attacks. When START releases the full Global Terrorism Database dataset for 2014, we anticipate it will include over 15,000 terrorist attacks.    Our preliminary data from the first 9 months of 2014 suggests that 7 of the 10 most lethal groups in 2014 were violent jihadist groups. And ISIL [Islamic State of Iraq and the Levant], among them, conducted more terrorist attacks than any other terrorist organization.    The trend lines over the last few years are largely driven by two factors: first, the proliferation of groups associated with Al Qaeda in hotspots around the world; and, second, the rise of ISIL and its strategy of escalation through sectarian violence.    What we have, therefore, is the makings of a global competition involving the most violent terrorist organizations in the world. This is even more troubling when one considers that both the theoretical and empirical work in the terrorism studies field suggests that competition among terrorist groups is one of the most important predictors of increasing lethality over time.    To better understand this competition and its implications, I would like to contrast the operations and strategies of Al Qaeda and its associated movement, or AQAM, with those of ISIL.    Al Qaeda is waging a protracted war of attrition against the West, specifically aiming to bleed the United States. If they are able to attrite the American economic, military, or political will to remain engaged in the Muslim world, local jihadists can overpower apostate regimes and establish what they would consider to be proper theocracies.    To wage this war of attrition, Al Qaeda has sent operatives into conflict zones across the world to reorient the violence of militant organizations and individuals, refocusing their wrath on far-enemy targets, like Western embassies or tourist destinations.    Al Qaeda seeks to use spectacular mass-casualty attacks to incite heavy-handed military responses from Western and apostate governments that seemingly evidence the war on Islam that Al Qaeda portrays in its propaganda, thereby polarizing the Muslim and the non-Muslim worlds and enabling jihadists to mobilize for a civilizational conflict.    ISIL is not currently waging a war of attrition but one of escalation. Instead of inviting Muslim versus Western violence, it is benefiting from the resources already being mobilized by sectarian polarization that has taken place in Iraq and Syria and beyond, which it actively seeks to exacerbate. Instead of the far enemy, ISIL's military operations have focused on attacking competitors in their midst who do not submit to their ideological and organizational primacy and seizing the resources necessary to build the institutions of the caliphate.    Given this competition, there are several implications for U.S. policy and regional security.    The first: While Al Qaeda's far-enemy strategy relies on provocation to polarize and mobilize the masses, ISIL is ratcheting up already-elevated levels of sectarian tension in the post-Arab Spring world. The continued presence of the Assad regime in Syria serves as a more salient rallying cry for ISIL than for AQAM, and broad anti-Assad sentiment in Sunni-majority countries helps to dampen those governments' responses to both ISIL and groups like Jabhat al-Nusra, an Al Qaeda affiliate.    As sectarian tensions remain high, ISIL and aligned jihadist groups will foster and exploit those tensions. ISIL veterans will travel to new fronts outside of Iraq and Syria, bringing their escalation strategy and sectarianism with them.    In a worst-case scenario, this contagion effect runs the risk of inciting a sectarian civil war in the Muslim world, relegating the West to the role of observer, poorly positioned to take any meaningful action to protect itself or others.    In addition, every new ISIL front opens up a new set of grievance narratives and a new set of mobilization pathways for terrorist organizations seeking to radicalize and recruit foreign fighters.    Three, both ISIL and AQAM have incentives to conduct attacks against the West as part of this competition. For ISIL, attacks against the West can be used as a form of deterrence, making foreign countries think twice or pay the price for large-scale military interventions in Iraq and Syria.    We cannot be fooled into thinking that Al Qaeda's focus on the caliphate prevents them from actively seeking the capability to conduct attacks against the homeland. For Al Qaeda and its associated movement, ISIL's antagonist rise to prominence has created a crisis of legitimacy, incentivizing them to use far-enemy attacks to regain the spotlight.    Furthermore, if ISIL continues to murder Muslims and overstep its bounds, as we have recently seen with respect to the murder of a Jordanian pilot, Al Qaeda and its associated movement might wind up looking more legitimate and mainstream by comparison as long as they remain focused on the true enemies of Islam, the West. We cannot take, therefore, take pressure off of AQAM.    To conclude, we are seeing an escalating competition among violent Sunni extremist groups at a time when sectarian tensions are high and many governments' hold on legitimacy is weak. It is essential, therefore, that any U.S. strategy prioritizes working with Sunni nations and communities to marginalize violent Sunni extremists.    To do this, the U.S. must find a way to ease sectarian tensions and earn the trust of our Sunni partners, allowing them to focus their attention on marginalizing groups like ISIL and AQAM.    Thank you.    [The prepared statement of Mr. Braniff can be found in the Appendix on page 50.]    The Chairman. Thank you.    Dr. Lynch.</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lynch. First, I would like to thank Chairman Thornberry, Ranking Member Smith, and the whole committee. It is a real honor to be on this panel and to have the chance to speak with you.    So, as you have heard from my colleagues, ISIL poses a serious threat to American interests, to the people of the region, to our partners in the region. And, of course, it is extremely important to not underestimate the nature of the threat or to misunderstand the nature of the threat.    I think it is important, however, to not perhaps exaggerate its novelty or perhaps the magnitude of the threat. These are not super-humans with unprecedented ability to form states or to seize territory or to inspire.    The world's history is full of insurgencies that have captured territory and sought to govern it by extracting resources from the local population. The world's history is full of insurgencies that have used graphic, violent terrorism to intimidate their enemies and to ensure control over their own local populations.    We have seen both Islamist and other ideological movements over world history. This is a dangerous and violent organization which must be confronted, but it is important that we place it in proper perspective.    I think the most important perspective that we need to keep is to understand the fundamental strategic dilemma that Islamic extremist groups have faced from their beginning, whether it is Islamic Jihad in Egypt or the Armed Islamic Group in Algeria or Al Qaeda in the 2000s or ISIL today. And that fundamental strategic problem is that while they do absolutely have the vision that General Flynn described, the characteristics that General Flynn described, and that extreme dogmatism, the vast, vast majority of the Muslims of the world do not agree with them. And they have failed every time they have attempted to reach out and to mobilize the world's Muslims on their side.    The ideology and the strategy of Al Qaeda and ISIL is to create a class of civilizations, to create an unbridgeable divide between the Muslims of the world and the West. And what we must keep in mind as we formulate any kind of effective strategy is that the way to defeat ISIL, Al Qaeda, and all forms of violent extremism is to marginalize them and to form alliances with the vast majority of the world who reject their barbarism and who reject their extreme ideologies.    The face of Muslims in the minds of Americans and the face of Muslims in the mind of the world should not be Abu Bakr Baghdadi. It should not be Osama bin Laden. It should not be the faceless murderers of the journalists of Charlie Hebdo in Paris. It should be Yusor Abu-Salha; Razan Abu-Salha; Deah Barakat, the Steph Curry-loving dental student and volunteer for Syrian refugees who was murdered in North Carolina this week.    To defeat ISIL, America must be seen as their champion, not as their enemy. And if we are able to align ourselves with the aspirations and the hopes of Muslims all over the world, then ISIL can be defeated, and only then.    And so I do not disagree with General Flynn's characterization of the threat posed by ISIL, but I believe it is extremely important that we approach this threat from the perspective of the need to constantly seek to deflate their pretensions, to marginalize them, and to expose their extremism in the eyes not only of us but of the Muslims who they seek to recruit, to mobilize, and ultimately to lead.    Now, this was, I believe, one of the great accomplishments--the great bipartisan accomplishments of both the Bush administration after 9/11 and the Obama administration: the immediate understanding of this strategic divide and the need to not allow Al Qaeda after 9/11 to provoke this kind of clash of civilizations.    President Bush, despite some missteps early on, I think did a fantastic job of trying to reach out to the Muslims of the United States and to ensure that this divide did not open up. And I think that is the bipartisan commitment that we should build on today.    Now, in my prepared statement, I go through in some detail explanations for why ISIL has emerged in the form that it has today. I won't repeat those here. Let me just hit some of the bullet points, because I think it is important to place this into a specific political context.    Ranking Member Smith, in his opening statement, mentioned the failures of governance, and I think this is extremely important. The failure of the Arab uprisings is a key part of the emergence of ISIL in the form it is today. An enormous number of young Muslims, young Arabs around the Middle East have seen their hopes raised and then crushed. The military coup in Egypt is a particularly defining point in proving, unfortunately, to a large number of people that peaceful political participation is not an option.    If we are going to respond to ISIL in the way, as again, I agree with General Flynn, that we must, we need to address those underlying causes of despair, of alienation, and the absence of alternative paths, which is building the possible pool of recruits for ISIL.    That includes reversing the sectarian misgovernment of Iraq. It includes trying to find some kind of peaceful de-escalation of the war in Syria. And it means trying to find some way to align the United States with the forces of moderate and peaceful change.    That is no easy task. I have some ideas about how we might go about doing that, but for now I will simply stop, and I welcome everyone's questions.    [The prepared statement of Dr. Lynch can be found in the Appendix on page 69.]    The Chairman. Thank you.    Again, I appreciate the testimony from each of you.    I would like to ask, hopefully, just a brief question from each of you.    General Flynn, towards the end of your statement, you make a point that an AUMF should not be overly constrained. You have had a lot of experience fighting these folks in the Middle East and South Asia. Do you have an opinion about how difficult it would be for our troops to follow a restriction that said they could not engage in enduring offensive ground combat operations?    General Flynn. Yes.    So we need to be very clear in this AUMF that, you know, may come out of an agreement between the legislative and executive branches here. When we give our military commanders a mission, we should allow them to execute that mission and not overly constrain them with approved authorities but then having to come back to the administration for permission.    So if we authorize the use of force to do something with these many times fleeting opportunities out there that our military forces see and then they have to come back up through a bureaucratic process to get permission even though there is an authority given to them, then either, you know, we need to review those authorities and those permissions or we need to change the commanders because we apparently don't trust them to do the job that we have given them to do. So that is a real problem today.    Give the commanders the authority to execute the mission that they have been given. If they are not the right people, remove them and put somebody else in there that can do that. Otherwise, allow them to do the things that they have been assigned, tasked, and are very capable of doing in what is currently the AUMF that we have.    We have become so overly bureaucratic in coming up through the system to get permission to basically do things that, frankly, colonels on the battlefield or captains at sea are very capable of doing.    The Chairman. Okay. Thank you.    Mr. Braniff, I was struck in your testimony that, as I read it, just in the last 12 months, we have seen a dramatic rise in these terrorist organizations and in their attacks.    Now, as I understand it, one of the things your organization does is keep track of these with objective metrics. And am I reading that right, that even in the last year we have seen this problem get dramatically worse?</t>
   </si>
   <si>
@@ -130,6 +145,12 @@
     <t>400279</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Miller. Thank you very much, Mr. Chairman.    General Flynn, in 2002, the authorization for use of military force basically said the President is authorized to use the Armed Forces of the United States as he determines to be necessary and appropriate.    Why do you think we now have an AUMF before us that puts restrictions on it on things that the President claims he can do without an AUMF?    General Flynn. I guess my answer to that would be, whatever the decision is between this body and the executive branch of government, we have to make sure, in one sense, we have to play our cards very close to our chest, meaning don't discount any option that the United States of America has by telegraphing what those options are or are not going to be, you know, we are not going to commit troops or we are not going to do this or that. So I just think that we have to play a very smart card game with the AUMF.    I think on this AUMF thing, though, is that, like I said, that is not a comprehensive strategy. That is a component of something that we need. And, like I said to the chairman, we have to make sure that when we lay this out to our military forces, primarily, and, to a degree, some inside of our intelligence community, that they have the full authority to be able to execute the tasks that they are going to be assigned. Otherwise, you know, you are tying our hands behind our back, so to speak, and we are slowing the system down through unnecessary bureaucracy.</t>
   </si>
   <si>
@@ -145,6 +166,9 @@
     <t xml:space="preserve">    Dr. Lynch. That cost is to continue to, and I think we have already started this, and I think our Arab allies have done this, is a really strong strategic communications campaign to highlight their barbarity, to highlight their extremism, to deflate their pretensions to power, to expose the realities of life in ISIL-governed territories, and to puncture their mystique in such a way that the alienated, disenfranchised youth in Tunis or in Libya doesn't see it as an attractive, noble, or heroic thing to go and join this group.    And I think that that is the way we need to approach them, to undermine them and deflate them rather than to exaggerate their capabilities.    The Chairman. I thank the gentleman.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chair.    General Flynn, thank you for your testimony and for your service. I think you made a number of excellent points, including the need to have a clear and comprehensive strategy from the administration before we move forward with an authorization for the use of military force.    You also talked about our need to rethink our relationships with our regional allies. And I think you said something to the effect of, if they failed to adhere to global standards and norms and values----    General Flynn. International law.</t>
   </si>
   <si>
@@ -160,6 +184,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    General Flynn, I have a question for you. I am really concerned that, just this week, President Barack Obama was interviewed and compared fighting ISIS to a big-city mayor fighting crime. And that really troubles me, because there is no comparison. That is a horrible and poor analogy.    In a big city, if you have criminals like muggers, carjackers, drug dealers, they are not trying to kill the mayor and take over the city government, which is what ISIS is trying to do in the various countries in the Middle East. And they want to take over and destabilize Jordan and Saudi Arabia, ultimately go after Israel.    There is just no comparison to a big-city mayor fighting crime. Are you troubled by that type of analogy? And does that indicate to you, like it does to me, that he just doesn't get it?    General Flynn. Well, what I have said is that you cannot defeat an enemy that you do not admit exists.    And I really, really strongly believe that the American public needs and wants moral, intellectual, and really strategic clarity and courage on this threat.    I mean, there is no comparison. And it is not to take away the danger that exists with the thugs and the criminals that are in our own system, but that is not what it is that we are facing in this discussion that we are having right now. It is totally different.</t>
   </si>
   <si>
@@ -172,6 +202,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. First, thank you very much for being here this morning.    You have touched a bit on other terrorist groups in the region. Could you please provide an update on Hezbollah?    Thank you.    General Flynn. I will give it a shot, and you guys can talk.    I mean, so Hezbollah is an Iranian-backed group. I believe we are still designating them as a terrorist organization, our State Department.    Hezbollah is deeply involved in Syria. So they are fighting in Syria. Members of Hezbollah are fighting, and they are actually leading and doing some of the, sort of, what I would call special-operations-type training of some of the Syrian forces.    Hezbollah is involved in Yemen. Hezbollah is certainly involved in Lebanon and some of the disruption of things in that particular country. And Hezbollah is involved in Iraq, as well. So members of Hezbollah are, in fact, inside of Iraq fighting with what I would describe as what we used to call the Badr Corps organization, which we know is led by members of Iran's IRGC [Iranian Revolutionary Guard Corps].    So Hezbollah is a very dangerous organization. They are responsible for killing many, many Americans, and we need to not let them, sort of, get a pass on any of this.</t>
   </si>
   <si>
@@ -187,6 +223,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for joining us today. Thank you for your testimony.    General Flynn, how worried are you about American citizens becoming radicalized, training overseas, and returning back to the United States?    And are there additional steps that the U.S. should take in addressing those citizens that travel to train with ISIS in Syria and Iraq and then later return back to the United States and the threats that they would pose here?    I would like to get your perspective.    General Flynn. Yeah. First, I think that our FBI and the leadership of the FBI is doing a phenomenal job dealing with this issue here in the homeland.    Just to give you a little perspective, when somebody shows up to Syria, okay, and this has been going on for a while, they do a little vetting of who these individuals are. And if it is somebody who just came over, you know, to sort of get their jihad on, so to speak, they may just tell them, ``You are going to be a suicide bomber. Here is what we are going to do, here is where you are going to operate, and go forth and do good.''    In the other parts of the vetting, though, they look for individuals who have different skill sets, who have savvy with the Internet, who have some leadership skills, who maybe have some engineering capabilities. So they are sophisticated in how they recruit, particularly when they arrive.    And those individuals then get put into a different pipeline. They may not get put into the suicide-attacker or VBIED [vehicle-borne improvised explosive device] pipeline; they may get put into a different pipeline. And those are the individuals that there will be, sort of, a different future for them to maybe come back to this country and get involved in additional recruiting, additional activities, and maybe, you know, larger-scale types of attacks that we are trying to avoid.    So I just think that, a variety of reasons why they get recruited. The Internet is a big, big part of this. I think our FBI is doing the best job that they can. But we really need to recognize and track who these persons are.    And I will be honest with you. If somebody is going to conspire to fight against us, which is essentially what they are doing, there also has to be a discussion, at least, about their citizenship.</t>
   </si>
   <si>
@@ -199,6 +241,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    Thank you all for being here and for your presentations.    General Flynn, could you follow up a bit on your comment just now because you are talking about the lessons learned about the mismatch and the threats. And would you make that same analysis about even our not understanding the country of Iraq, for example, when we went into Iraq and may have created more enemies than friends. How would you respond to that?    General Flynn. Yeah, I think that that is very, you know, I mean what you are implying is very true. And I think that we, you know, in the spectrum of conflict, when we define the spectrum of conflict, we in the military look at it from peace to war. The political dimension of our country has to look at it from peace and get us back to peace in order to get us out of war. And we did not, we don't do a really good job thinking past the point of conflict or the point of war.    And we have to do that. And I think that is part of this debate, as the ranking member was highlighting, that we have to not just throw military resources at this thing; we have to be far more sophisticated. But that is not comprehensive right now. That sophistication, I don't see it. And I have been studying this problem for a long time, and I am, you know, I am hopeful that we can get our act together. But it has to be one that is very, very comprehensive, and it is going to be a multigenerational problem.    And there are moderates out there that we do need to encourage. Somebody sent me a note the other day and said, Hey, you know, there is 126 subject-matters experts, you know, clerics and others in the Muslim world that came out strong against ISIS. Why aren't there 126,000? Why are there only 126? I mean, there is that many mosques in Baghdad. I mean, there should be thousands, and there should be leaders of these countries that we are dealing with that need to stand up and make a statement, make a strong statement, about what it is that we are doing or not doing. So----</t>
   </si>
   <si>
@@ -220,6 +268,12 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Just a question about ISIS. I served in Iraq with the Marine Corps, in 2005, in Ramadi and Fallujah; in 2006, in Haditha, Barwana, Haqlaniyah in the Western Euphrates River Valley. And what I found in the Sunni Arab population is they clearly didn't like us. We have upset the apple cart. They saw the government in Baghdad as a Shia-dominated government, sectarian government that was against them. And they were against the government. But when they saw later on a path, the fissures between the Al Qaeda element and the local insurgents became more significant over time. And I think when they saw a path where they could be a part of the government, then those fissures, you know, exploded between the two. And I found them to be a very moderate people. Boys and girls went to school together in these towns; secular curriculum, annual exams, and very dependent upon a lot of government services. And so it is hard for me to envision them subjugated to this radical Islamic group, ISIS. Just, they were temporarily in line with Al Qaeda, and then they broke up. And so what is the prognosis here? And I will refer to each one of you.</t>
   </si>
   <si>
@@ -235,6 +289,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman.    Thank you, gentlemen, for being here today. Each of you have made points throughout this morning about how this sectarianism is a driver for violence, how the trust of the Sunni tribes and people must be earned in order to take the oxygen away that currently exists, especially in Iraq, for ISIS. How can this be done with this current strategy? You have talked about new leadership in place. You have talked about different rhetoric, a different way of doing things, but the fact and the reality is that Iran's influence over this current government in Iraq continues as it has been. Their ability to have any sense of control over the Shia militias and who they are attacking and what they are doing does not exist. And unless you go to a different model of governance and go away from this attachment to this continued policy of one central government in Iraq and move to something where you are actually truly empowering the Kurds, we are not having to funnel everything through the Baghdad government, where, at this point, even a small margin of the weapons and ammunition that we are sending is getting to them, and empower the Sunnis, and empower the Shias in some type of three-state solution, how is this current strategy a winning strategy to defeat ISIS, unless you get to this core of this issue?    General Flynn. I will just quickly, I believe that we are going to not go back to the way things were. The breakdown of the boundaries within this region are going to be incredibly difficult to get back to, not impossible, but I just don't see that happening any time soon, potentially in my lifetime.    I would say that Iran is the greater problem. They do not see inclusiveness of Sunnis, you know, from the Iranian viewpoint. And I think that they, like you, saw in Yemen recently with some of the chanting that we saw, you are seeing in Iraq things occur that are clearly Iranian influenced and against everything that we are trying to do. So I will leave it at that.</t>
   </si>
   <si>
@@ -247,6 +307,12 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heck. Thank you, Mr. Chairman.    Thank you all for being here today. The President recently released his 2015 National Security Strategy. And on the White House Website, it states that the strategy is ``the blueprint for America's leadership in the world--how we address global challenges while advancing our Nation's interests, values, and vision for the future.''    On page 3 of the strategy, it says, ``We are leading a global campaign and degrading and ultimately defeating the Islamic State of Iraq and the Levant.''    And on page 15, it states, ``We reject the lie that America and its allies are at war with Islam.''    I would disagree with the first statement. I don't think we are leading in trying to degrade and ultimately defeat ISIL, but I would agree with the second statement that we are not at war with all of Islam. We are at war with radical Islam and Islamic extremism, yet nowhere in the strategy does that term appear. In fact, the only two times that the word ``Islam'' appears in the strategy are in the two instances I just mentioned, yet climate change appears 19 times.    I would ask, Do you think the National Security Strategy has enough specificity to adequately inform the nested documents of the National Defense Strategy and the National Military Strategy to actually have a positive impact on executing a strategy for degrading and ultimately defeating     And, secondly, Dr. Lynch, I would ask in your statement about the momentum of ISIL being halted. Just within the last 24 hours, they have taken control of the city of al-Baghdadi, and they are knocking on the door of the Al Asad Air Base, where we have 320 Marines in a training capacity. How can you say that the momentum has actually been halted?</t>
   </si>
   <si>
@@ -298,6 +364,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman.    An interesting discussion about Guantanamo, and I absolutely--in my home area, we have the largest Federal prison ever. And I would just suggest to you, when you detain these folks, whether it is GTMO [Guantanamo] or in the U.S., that is the issue, that is going to be the issue to the bad guys and their associated friends and fellows. So I think it is, I agree with the general, when you bring them back to the U.S., as a former law enforcement, it just creates a whole bunch of other issues that we have not had to deal with when they are held at     The one thing that I am struggling with was the President's request for an authorization, and you hit it on the head, General, is a clear, comprehensive strategy. And what would that look like? I guess that is where I am struggling. What does a clear, comprehensive strategy look like in regards to dealing with the issue that we have in front of us? Because, you know, we had the King of Jordan here. And his comprehensive strategy is, you can't just look at ISIS or ISIL. You have got to look at across the world in regards to Islamic extremism.    General Flynn. So, I mean, we talked about this business about clearly defining the enemy and making sure that it is comprehensive. And I think that those are sort of two parts of this. And you have just addressed, certainly, the second one. I think the third one is that we have to really take a hard look at how we are organized as a nation to deal with the sort of the tactical problem of what is happening in Iraq and Syria. But we also have to look at how we are organized as a nation to deal with the wider longer-term problem of this radical version of Islam.    Now, that is, you know, specifically, it is the Department of Defense. It is the, you know, the Department of State, the Central Intelligence Agency, and the Intelligence Community as it supports our national interest. And then I think we have to look at how we are organized internationally. And I have really, you know, I use the NATO [North Atlantic Treaty Organization] model, you know, as a model, although it has got its, you know, shortcomings, but we need to have some sort of Arab-world NATO, if you will, like structure, and not deal with each one of these countries as though they are individual countries dealing with individual problems. They are all dealing with those kinds of problems. And I think that we do need to put somebody in charge of it. I think that we need to put, designate someone in charge that has not only the backing of this country and a full line of authority from the President of the United States to execute authorities, and it is probably civilian-led, but it is just somebody with that kind of, you know, gravitas, I guess, but also internationally accepted to run this sort of campaign.    Now, should it be somebody from the U.S.? I believe it should be somebody from the U.S. It doesn't need to be, doesn't mean that we have to have large numbers of boots on the ground. It just means that we have to come together, organize ourselves first, make sure that we are organized correctly internationally, and then make sure that somebody is in charge of this effort, and then, frankly, tell the American public that this is going to last for generations. I mean, this is not something that is going to go away.</t>
   </si>
   <si>
@@ -340,6 +412,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank all of our witnesses for being here, in particular General Flynn, a fellow Rhode Islander.    General, welcome back before the committee and thank you for your years of service.    So I would like to, my question would be for Dr. Lynch, and also for General Flynn, whoever wants to go first. Clearly, this rise of radical violent extremists didn't happen overnight. It was allowed to fester in many ways. Maybe it was the religious community, for whatever reason, as I understand it, was allowed to preach hate and violence, and a lot of the leaders in the Middle East kind of looked the other way and for whatever reason. So it kind of took a long time to get here. It is going to take a long time to get out of it. But let me ask you, do the statements from, for example, President el-Sisi, in Egypt, which I found surprising, but welcome, a welcome statement when he spoke to the religious community there or establishing Sunni imams in the greater Middle East who have denounced the violence of ISIL or Islamic extremism more broadly, do they moderate, or you know, counter the nature of the grievances, and the threat from jihadists in the region? Or are these steps having the reverse effect of reinforcing the jihadist ideology and grievance narrative? Can you comment on that?</t>
   </si>
   <si>
@@ -358,6 +436,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    General Flynn, first of all, I notice you went to University of Rhode Island.    General Flynn. First land-grant university in the country, established by--Abraham Lincoln actually established that law.</t>
   </si>
   <si>
@@ -376,6 +460,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. I will try to be brief.    And, Dr. Lynch, I want to go to one of the statements that you made about the fact that terrorism is ebbing and flowing. We shouldn't pay too much attention to it. That is just going to happen the way the Middle East is, if you will. But I would like to have this submitted for the record and wonder if you have seen this.    [The information referred to is retained in committee files and can be viewed upon request.]</t>
   </si>
   <si>
@@ -428,6 +518,12 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    And thank you all for your testimony. It has been very informative. A lot of my questions have been answered.    A quick question about trends in Africa. I was a part of a team at U.S. Africa Command running current operations there. And just your comments, we talked a little bit about Boko Haram, but AQAM [Al Qaeda and associated movements] and Al Shabaab, and the trends you are seeing with those organizations, and you know, there are plenty of ungoverned spaces that are potential--we have seen foreign fighters flow in and out in the past when many people weren't paying attention. So any comments on the trends going on in the rest of those organizations on the African Continent?</t>
@@ -791,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,2813 +917,3333 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>69</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>75</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
       <c r="H55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>91</v>
+      </c>
       <c r="H57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
       <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
       <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
       <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G78" t="s">
+        <v>116</v>
+      </c>
       <c r="H78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
       <c r="H80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
       <c r="H82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
       <c r="H84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>132</v>
+      </c>
       <c r="H87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G89" t="s">
+        <v>132</v>
+      </c>
       <c r="H89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
       <c r="H91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G92" t="s">
+        <v>140</v>
+      </c>
       <c r="H92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G93" t="s">
+        <v>140</v>
+      </c>
       <c r="H93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G94" t="s">
+        <v>140</v>
+      </c>
       <c r="H94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G95" t="s">
+        <v>140</v>
+      </c>
       <c r="H95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G96" t="s">
+        <v>140</v>
+      </c>
       <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G97" t="s">
+        <v>148</v>
+      </c>
       <c r="H97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G98" t="s">
+        <v>148</v>
+      </c>
       <c r="H98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G100" t="s">
+        <v>148</v>
+      </c>
       <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G103" t="s">
+        <v>148</v>
+      </c>
       <c r="H103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G105" t="s">
+        <v>148</v>
+      </c>
       <c r="H105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G107" t="s">
+        <v>148</v>
+      </c>
       <c r="H107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G109" t="s">
+        <v>148</v>
+      </c>
       <c r="H109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G111" t="s">
+        <v>148</v>
+      </c>
       <c r="H111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
       <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G113" t="s">
+        <v>148</v>
+      </c>
       <c r="H113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>137</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G114" t="s">
+        <v>168</v>
+      </c>
       <c r="H114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G116" t="s">
+        <v>168</v>
+      </c>
       <c r="H116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G117" t="s">
+        <v>168</v>
+      </c>
       <c r="H117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>142</v>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
   </si>
   <si>
     <t>400279</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Miller</t>
@@ -887,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,3330 +929,3616 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" t="s">
-        <v>76</v>
       </c>
       <c r="I47" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G92" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G93" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I93" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G94" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I94" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I95" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G97" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I97" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J100" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G103" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I103" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G105" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G107" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I107" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G109" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H109" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G113" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="H114" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I114" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G116" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="H116" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I116" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G117" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I117" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>174</v>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
